--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata" sheetId="1" r:id="rId4"/>
+    <sheet name="validateCreateCustomer" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
